--- a/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_2_partcipants_202202.xlsx
+++ b/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_2_partcipants_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -339,10 +339,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Fev 2022) 2. TAS1 FL - Formulaire Participants</t>
-  </si>
-  <si>
-    <t>sn_lf_tas1_2_partcipants_202202</t>
+    <t>(Fev 2022) 2. TAS1 FL - Formulaire Participants V2</t>
+  </si>
+  <si>
+    <t>sn_lf_tas1_2_partcipants_202202_2</t>
   </si>
   <si>
     <t>French</t>
@@ -353,12 +353,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,10 +401,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,65 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -497,44 +551,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -557,19 +573,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,163 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,11 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +817,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,11 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,185 +877,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1115,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1136,11 +1158,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1417,7 +1441,7 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2103,8 +2127,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
